--- a/Classifier1/SVMSmoteless.xlsx
+++ b/Classifier1/SVMSmoteless.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pain" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hypertensive disease " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ADRCount" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -502,4 +504,272 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5918803418803419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5993464052287582</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5772717599489252</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weighted</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.697841726618705</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6933434959349594</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5871108058608059</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5737441588785046</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AskAPatient</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8370044052863436</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4185022026431718</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4556354916067146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4316239316239316</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3473324707273047</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3547498675911214</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3341893829223264</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Weighted</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5718954248366013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3984126984126984</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3287037037037037</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5323741007194245</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.674731182795699</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4046330845771144</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3609420248163703</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AskAPatient</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6651982378854625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4132034632034632</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.351358024691358</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3085807118594004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>